--- a/Article Category Data/Categories2023-04-10 002600.397620.xlsx
+++ b/Article Category Data/Categories2023-04-10 002600.397620.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77927C95-B780-4836-A32E-369A62144ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD162B9A-F6A9-4C2A-BFF0-D856375771F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="342">
   <si>
     <t>title</t>
   </si>
@@ -1034,6 +1034,18 @@
   </si>
   <si>
     <t>other?</t>
+  </si>
+  <si>
+    <t>business?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other? </t>
+  </si>
+  <si>
+    <t>world?</t>
+  </si>
+  <si>
+    <t>health? Science?</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,6 +1434,7 @@
     <col min="1" max="1" width="109.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,7 +1863,7 @@
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1964,18 +1977,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>106</v>
       </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
@@ -1986,7 +2002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>109</v>
       </c>
@@ -1997,7 +2013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
@@ -2008,7 +2024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -2019,7 +2035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
@@ -2030,7 +2046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -2041,7 +2057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
@@ -2063,7 +2079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -2074,18 +2090,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>126</v>
       </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -2096,7 +2115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>129</v>
       </c>
@@ -2107,7 +2126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -2129,7 +2148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>135</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -2151,7 +2170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>139</v>
       </c>
@@ -2162,7 +2181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>141</v>
       </c>
@@ -2173,7 +2192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>143</v>
       </c>
@@ -2184,7 +2203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
@@ -2195,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>147</v>
       </c>
@@ -2206,7 +2225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
@@ -2217,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>151</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>153</v>
       </c>
@@ -2239,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>155</v>
       </c>
@@ -2250,7 +2269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>157</v>
       </c>
@@ -2261,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
@@ -2272,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -2283,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>163</v>
       </c>
@@ -2294,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>165</v>
       </c>
@@ -2305,40 +2324,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B80" t="s">
         <v>168</v>
       </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B81" t="s">
         <v>170</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B82" t="s">
         <v>172</v>
       </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>173</v>
       </c>
@@ -2349,7 +2377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
@@ -2360,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>177</v>
       </c>
@@ -2371,18 +2399,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B86" t="s">
         <v>180</v>
       </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>181</v>
       </c>
@@ -2393,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>183</v>
       </c>
@@ -2404,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>185</v>
       </c>
@@ -2415,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>187</v>
       </c>
@@ -2426,18 +2457,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B91" t="s">
         <v>190</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>191</v>
       </c>
@@ -2448,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>193</v>
       </c>
@@ -2459,7 +2490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>195</v>
       </c>
@@ -2470,29 +2501,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B95" t="s">
         <v>198</v>
       </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B96" t="s">
         <v>200</v>
       </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>201</v>
       </c>
@@ -2503,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>203</v>
       </c>
@@ -2514,7 +2548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>205</v>
       </c>
@@ -2525,7 +2559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>207</v>
       </c>
@@ -2536,7 +2570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>209</v>
       </c>
@@ -2547,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>211</v>
       </c>
@@ -2558,7 +2592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -2569,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>215</v>
       </c>
@@ -2580,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>217</v>
       </c>
@@ -2591,18 +2625,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B106" t="s">
         <v>220</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>221</v>
       </c>
@@ -2613,7 +2650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>223</v>
       </c>
@@ -2624,7 +2661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>225</v>
       </c>
@@ -2635,7 +2672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
@@ -2646,7 +2683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>229</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>231</v>
       </c>
@@ -2668,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>233</v>
       </c>
@@ -2679,7 +2716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>235</v>
       </c>
@@ -2690,7 +2727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -2701,18 +2738,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B116" t="s">
         <v>240</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>241</v>
       </c>
@@ -2723,7 +2763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>243</v>
       </c>
@@ -2734,7 +2774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>245</v>
       </c>
@@ -2745,7 +2785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>247</v>
       </c>
@@ -2756,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>249</v>
       </c>
@@ -2767,7 +2807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>251</v>
       </c>
@@ -2778,7 +2818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>253</v>
       </c>
@@ -2789,7 +2829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>255</v>
       </c>
@@ -2800,7 +2840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>257</v>
       </c>
@@ -2811,29 +2851,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B126" t="s">
         <v>260</v>
       </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B127" t="s">
         <v>262</v>
       </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>263</v>
       </c>
@@ -2844,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>265</v>
       </c>
@@ -2855,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
@@ -2866,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>267</v>
       </c>
@@ -2877,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>270</v>
       </c>
@@ -2888,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>272</v>
       </c>
@@ -2899,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>274</v>
       </c>
@@ -2910,7 +2950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>276</v>
       </c>
@@ -2921,7 +2961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>278</v>
       </c>
@@ -2932,7 +2972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>280</v>
       </c>
@@ -2943,7 +2983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>282</v>
       </c>
@@ -2954,18 +2994,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B139" t="s">
         <v>285</v>
       </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
@@ -2976,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>211</v>
       </c>
@@ -2987,7 +3030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>289</v>
       </c>
@@ -2998,7 +3041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>253</v>
       </c>
@@ -3009,29 +3052,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B144" t="s">
         <v>293</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>296</v>
       </c>
@@ -3042,18 +3088,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B147" t="s">
         <v>299</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>300</v>
       </c>
@@ -3064,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>302</v>
       </c>
@@ -3075,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>304</v>
       </c>
@@ -3086,29 +3135,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B151" t="s">
         <v>307</v>
       </c>
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B152" t="s">
         <v>309</v>
       </c>
-      <c r="C152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>310</v>
       </c>
@@ -3119,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>312</v>
       </c>
@@ -3130,18 +3179,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B155" t="s">
         <v>315</v>
       </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>316</v>
       </c>
@@ -3152,7 +3201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>318</v>
       </c>
@@ -3163,92 +3212,116 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B158" t="s">
         <v>321</v>
       </c>
-      <c r="C158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B159" t="s">
         <v>323</v>
       </c>
-      <c r="C159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B160" t="s">
         <v>325</v>
       </c>
-      <c r="C160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B161" t="s">
         <v>327</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B162" t="s">
         <v>329</v>
       </c>
-      <c r="C162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B163" t="s">
         <v>331</v>
       </c>
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B164" t="s">
         <v>333</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B165" t="s">
         <v>335</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Article Category Data/Categories2023-04-10 002600.397620.xlsx
+++ b/Article Category Data/Categories2023-04-10 002600.397620.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD162B9A-F6A9-4C2A-BFF0-D856375771F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA05A293-A979-4404-B5BA-215D4216B42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="342">
   <si>
     <t>title</t>
   </si>
@@ -1103,12 +1103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1864,7 @@
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2359,12 +2360,10 @@
       <c r="B82" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="C82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
